--- a/biology/Botanique/Épipactis_à_larges_feuilles/Épipactis_à_larges_feuilles.xlsx
+++ b/biology/Botanique/Épipactis_à_larges_feuilles/Épipactis_à_larges_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_%C3%A0_larges_feuilles</t>
+          <t>Épipactis_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipactis helleborine
 L'épipactis à larges feuilles (Epipactis helleborine subsp. helleborine) est une espèce de plante herbacée vivace de la famille des Orchidacées que l'on rencontre en forêt ou spontanément dans les parcs et jardins des villes et campagnes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_%C3%A0_larges_feuilles</t>
+          <t>Épipactis_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Plante
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_%C3%A0_larges_feuilles</t>
+          <t>Épipactis_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,11 +568,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pollinisateurs confirmés sont des fourmis, mouches, coléoptères (Cantharis rustica...), des bourdons et des guêpes (Vespula vulgaris, Dolichovespula sylvestris...).
 La plante produit du nectar facilement accessible aux visiteurs en tout genre, son hypochile nectarifère ayant une forme de coupe.
-En 2005 des chercheurs ont mis en évidence que son nectar contient de l'oxycodone en petite quantité[1]. Cette molécule est un opioïde créé en laboratoire avant d'être identifiée naturellement. Elle est utilisée comme antalgique pour les douleurs fortes et est considérée comme stupéfiant en France.
+En 2005 des chercheurs ont mis en évidence que son nectar contient de l'oxycodone en petite quantité. Cette molécule est un opioïde créé en laboratoire avant d'être identifiée naturellement. Elle est utilisée comme antalgique pour les douleurs fortes et est considérée comme stupéfiant en France.
 L'hybridation se fait avec Cephalanthera damasonium et d'autres espèces d'épipactis.
 </t>
         </is>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_%C3%A0_larges_feuilles</t>
+          <t>Épipactis_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aire de répartition : eurasiatique, se répand dans le quart nord-est des États-Unis depuis 150 ans.
 France : espèce courante, sauf dans les départements suivants : Finistère, Gers, Landes.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_%C3%A0_larges_feuilles</t>
+          <t>Épipactis_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : sous-bois herbacés médioeuropéens, planitiaires à montagnards, de 0 à 2 000 m.
 </t>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_%C3%A0_larges_feuilles</t>
+          <t>Épipactis_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,9 +671,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Belgique, l'espèce est légalement protégée. En France, l'espèce est classée "LC" : Préoccupation mineure[2]. Elle est néanmoins protégée en Aquitaine et dans le Nord-Pas-de-Calais.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, l'espèce est légalement protégée. En France, l'espèce est classée "LC" : Préoccupation mineure. Elle est néanmoins protégée en Aquitaine et dans le Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
